--- a/王者喵喵/配置表（差科技-随机事件-搞事情配置表）/地图配置_map.xlsx
+++ b/王者喵喵/配置表（差科技-随机事件-搞事情配置表）/地图配置_map.xlsx
@@ -17,12 +17,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">map!$B$2:$K$2001</definedName>
   </definedNames>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="35">
   <si>
     <t>id</t>
   </si>
@@ -63,127 +63,94 @@
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
-    <t>display_lv</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
     <t>unlock_lv</t>
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
+    <t>可解锁等级
+（玩家等级）</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
     <t>解锁消耗资源
-1-体力
-2-金币
-3-木材
-4-矿石
-5-圣水
+70001-体力
+70002-金币
+70003-木材
+70004-矿石
+70005-圣水
+70006-钻石
 以“|”号间隔
 （1_数量|2_数量|3_数量）</t>
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
-    <t>1_1|2_10|3_10|4_10</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <t>70001_1|70002_10|70003_10|70004_10</t>
   </si>
   <si>
-    <t>1_1|2_20|3_20|4_20</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <t>70001_1|70002_20|70003_20|70004_20</t>
   </si>
   <si>
-    <t>1_1|2_100|3_30|4_30</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <t>70001_1|70002_100|70003_30|70004_30</t>
   </si>
   <si>
-    <t>1_1|2_500|3_200|4_200</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <t>70001_1|70002_500|70003_200|70004_200</t>
   </si>
   <si>
-    <t>1_1|2_1000|3_500|4_500</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <t>70001_1|70002_1000|70003_500|70004_500</t>
   </si>
   <si>
-    <t>1_1|2_2000|3_1000|4_1000</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <t>70001_1|70002_2000|70003_1000|70004_1000</t>
   </si>
   <si>
-    <t>1_1|2_3000|3_2000|4_2000</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <t>70001_1|70002_3000|70003_2000|70004_2000</t>
   </si>
   <si>
-    <t>1_1|2_5000|3_3000|4_3000</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <t>70001_1|70002_5000|70003_3000|70004_3000</t>
   </si>
   <si>
-    <t>1_1|2_8000|3_4000|4_4000</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <t>70001_1|70002_8000|70003_4000|70004_4000</t>
   </si>
   <si>
-    <t>1_1|2_10000|3_5000|4_5000</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <t>70001_1|70002_10000|70003_5000|70004_5000</t>
   </si>
   <si>
-    <t>1_1|2_12000|3_6000|4_6000</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <t>70001_1|70002_12000|70003_6000|70004_6000</t>
   </si>
   <si>
-    <t>1_1|2_15000|3_7000|4_7000</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <t>70001_1|70002_15000|70003_7000|70004_7000</t>
   </si>
   <si>
-    <t>1_1|2_18000|3_8000|4_8000</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <t>70001_1|70002_18000|70003_8000|70004_8000</t>
   </si>
   <si>
-    <t>1_1|2_20000|3_9000|4_9000</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <t>70001_1|70002_20000|70003_9000|70004_9000</t>
   </si>
   <si>
-    <t>1_1|2_25000|3_10000|4_10000</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <t>70001_1|70002_25000|70003_10000|70004_10000</t>
   </si>
   <si>
-    <t>1_1|2_30000|3_11000|4_11000</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <t>70001_1|70002_30000|70003_11000|70004_11000</t>
   </si>
   <si>
-    <t>1_1|2_40000|3_12000|4_12000</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <t>70001_1|70002_40000|70003_12000|70004_12000</t>
   </si>
   <si>
-    <t>1_1|2_50000|3_13000|4_13000</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <t>70001_1|70002_50000|70003_13000|70004_13000</t>
   </si>
   <si>
-    <t>1_1|2_70000|3_14000|4_14000</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <t>70001_1|70002_70000|70003_14000|70004_14000</t>
   </si>
   <si>
-    <t>1_1|2_80000|3_15000|4_15000</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <t>70001_1|70002_80000|70003_15000|70004_15000</t>
   </si>
   <si>
-    <t>1_1|2_90000|3_16000|4_16000</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <t>70001_1|70002_90000|70003_16000|70004_16000</t>
   </si>
   <si>
-    <t>1_1|2_100000|3_17000|4_17000</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <t>70001_1|70002_100000|70003_17000|70004_17000</t>
   </si>
   <si>
-    <t>1_1|2_100000|3_17000|4_17000</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>1_1|2_100000|3_17000|4_17000</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>1_1|2_100000|3_17000|4_17000</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>可解锁等级
-（玩家等级）</t>
+    <t>display_lv</t>
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
 </sst>
@@ -911,8 +878,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K2022"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -921,7 +888,7 @@
     <col min="2" max="2" width="12.5" style="14" customWidth="1"/>
     <col min="3" max="3" width="17.5" style="14" customWidth="1"/>
     <col min="4" max="4" width="16.25" style="14" customWidth="1"/>
-    <col min="5" max="5" width="38.375" style="14" customWidth="1"/>
+    <col min="5" max="5" width="50.375" style="14" customWidth="1"/>
     <col min="6" max="6" width="14.75" style="14" customWidth="1"/>
     <col min="7" max="8" width="15.25" style="14" customWidth="1"/>
     <col min="9" max="9" width="17.25" style="14" customWidth="1"/>
@@ -947,7 +914,7 @@
         <v>4</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="E2" s="19" t="s">
         <v>11</v>
@@ -966,13 +933,13 @@
         <v>0</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>6</v>
@@ -1707,7 +1674,7 @@
         <v>25</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F35" s="4">
         <v>0</v>
@@ -1749,7 +1716,7 @@
         <v>27</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F37" s="4">
         <v>0</v>
@@ -1770,7 +1737,7 @@
         <v>28</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F38" s="4">
         <v>0</v>
@@ -1791,7 +1758,7 @@
         <v>29</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F39" s="4">
         <v>0</v>
@@ -1812,7 +1779,7 @@
         <v>30</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F40" s="4">
         <v>0</v>
@@ -1833,7 +1800,7 @@
         <v>31</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F41" s="4">
         <v>0</v>
@@ -1854,7 +1821,7 @@
         <v>32</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F42" s="4">
         <v>20001</v>
@@ -1875,7 +1842,7 @@
         <v>33</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F43" s="4">
         <v>0</v>
@@ -1896,7 +1863,7 @@
         <v>34</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F44" s="4">
         <v>0</v>
@@ -1917,7 +1884,7 @@
         <v>35</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F45" s="4">
         <v>0</v>
@@ -1938,7 +1905,7 @@
         <v>36</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F46" s="4">
         <v>0</v>
@@ -1959,7 +1926,7 @@
         <v>37</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F47" s="4">
         <v>0</v>
@@ -1980,7 +1947,7 @@
         <v>38</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F48" s="4">
         <v>10001</v>
@@ -2001,7 +1968,7 @@
         <v>39</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F49" s="4">
         <v>0</v>
@@ -2022,7 +1989,7 @@
         <v>40</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F50" s="4">
         <v>0</v>
@@ -2043,7 +2010,7 @@
         <v>41</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F51" s="4">
         <v>0</v>
@@ -2064,7 +2031,7 @@
         <v>42</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F52" s="4">
         <v>20001</v>
@@ -2085,7 +2052,7 @@
         <v>43</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F53" s="4">
         <v>0</v>
@@ -2106,7 +2073,7 @@
         <v>44</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F54" s="4">
         <v>0</v>
@@ -2127,7 +2094,7 @@
         <v>45</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F55" s="4">
         <v>0</v>
@@ -2148,7 +2115,7 @@
         <v>46</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F56" s="4">
         <v>0</v>
@@ -2169,7 +2136,7 @@
         <v>47</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F57" s="4">
         <v>0</v>
@@ -2190,7 +2157,7 @@
         <v>48</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F58" s="4">
         <v>30001</v>
@@ -2211,7 +2178,7 @@
         <v>49</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F59" s="4">
         <v>0</v>
@@ -2232,7 +2199,7 @@
         <v>50</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F60" s="4">
         <v>0</v>
@@ -2253,7 +2220,7 @@
         <v>51</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F61" s="4">
         <v>0</v>
@@ -2274,7 +2241,7 @@
         <v>52</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F62" s="4">
         <v>0</v>
@@ -2295,7 +2262,7 @@
         <v>53</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F63" s="4">
         <v>0</v>
@@ -2316,7 +2283,7 @@
         <v>54</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F64" s="4">
         <v>10001</v>
@@ -2337,7 +2304,7 @@
         <v>55</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F65" s="4">
         <v>0</v>
@@ -2358,7 +2325,7 @@
         <v>56</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F66" s="4">
         <v>0</v>
@@ -2379,7 +2346,7 @@
         <v>57</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F67" s="4">
         <v>0</v>
@@ -2400,7 +2367,7 @@
         <v>58</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F68" s="4">
         <v>0</v>
@@ -2421,7 +2388,7 @@
         <v>59</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F69" s="4">
         <v>20001</v>
@@ -2442,7 +2409,7 @@
         <v>60</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F70" s="4">
         <v>0</v>
@@ -2463,7 +2430,7 @@
         <v>61</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F71" s="4">
         <v>0</v>
@@ -2484,7 +2451,7 @@
         <v>62</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F72" s="4">
         <v>0</v>
@@ -2505,7 +2472,7 @@
         <v>63</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F73" s="4">
         <v>0</v>
@@ -2526,7 +2493,7 @@
         <v>64</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F74" s="4">
         <v>0</v>
@@ -2547,7 +2514,7 @@
         <v>65</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F75" s="4">
         <v>10001</v>
@@ -2568,7 +2535,7 @@
         <v>66</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F76" s="4">
         <v>0</v>
@@ -2589,7 +2556,7 @@
         <v>67</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F77" s="4">
         <v>0</v>
@@ -2610,7 +2577,7 @@
         <v>68</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F78" s="4">
         <v>0</v>
@@ -2631,7 +2598,7 @@
         <v>69</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F79" s="4">
         <v>0</v>
@@ -2652,7 +2619,7 @@
         <v>70</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F80" s="4">
         <v>30001</v>
@@ -2673,7 +2640,7 @@
         <v>71</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F81" s="4">
         <v>0</v>
@@ -2694,7 +2661,7 @@
         <v>72</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F82" s="4">
         <v>0</v>
@@ -2715,7 +2682,7 @@
         <v>73</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F83" s="4">
         <v>0</v>
@@ -2736,7 +2703,7 @@
         <v>74</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F84" s="4">
         <v>0</v>
@@ -2757,7 +2724,7 @@
         <v>75</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F85" s="4">
         <v>20001</v>
@@ -2778,7 +2745,7 @@
         <v>76</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F86" s="4">
         <v>0</v>
@@ -2799,7 +2766,7 @@
         <v>77</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F87" s="4">
         <v>0</v>
@@ -2824,7 +2791,7 @@
         <v>78</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F88" s="4">
         <v>0</v>
@@ -2849,7 +2816,7 @@
         <v>79</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F89" s="4">
         <v>0</v>
@@ -2874,7 +2841,7 @@
         <v>80</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F90" s="4">
         <v>0</v>
@@ -2899,7 +2866,7 @@
         <v>81</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F91" s="4">
         <v>10001</v>
@@ -2924,7 +2891,7 @@
         <v>82</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F92" s="4">
         <v>0</v>
@@ -2949,7 +2916,7 @@
         <v>83</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F93" s="4">
         <v>0</v>
@@ -2974,7 +2941,7 @@
         <v>84</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F94" s="4">
         <v>0</v>
@@ -2999,7 +2966,7 @@
         <v>85</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F95" s="4">
         <v>0</v>
@@ -3020,7 +2987,7 @@
         <v>86</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F96" s="4">
         <v>20001</v>
@@ -3044,7 +3011,7 @@
         <v>87</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F97" s="4">
         <v>0</v>
@@ -3067,7 +3034,7 @@
         <v>88</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F98" s="4">
         <v>0</v>
@@ -3090,7 +3057,7 @@
         <v>89</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F99" s="4">
         <v>0</v>
@@ -3113,7 +3080,7 @@
         <v>90</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F100" s="4">
         <v>0</v>
@@ -3136,7 +3103,7 @@
         <v>91</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F101" s="4">
         <v>0</v>
@@ -3159,7 +3126,7 @@
         <v>92</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F102" s="4">
         <v>0</v>
@@ -3182,7 +3149,7 @@
         <v>93</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F103" s="4">
         <v>30001</v>

--- a/王者喵喵/配置表（差科技-随机事件-搞事情配置表）/地图配置_map.xlsx
+++ b/王者喵喵/配置表（差科技-随机事件-搞事情配置表）/地图配置_map.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wzmm\doc\配置表\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\xiuxian\王者喵喵\配置表（差科技-随机事件-搞事情配置表）\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="14">
   <si>
     <t>id</t>
   </si>
@@ -84,73 +84,11 @@
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
-    <t>70001_1|70002_10|70003_10|70004_10</t>
+    <t>display_lv</t>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
-    <t>70001_1|70002_20|70003_20|70004_20</t>
-  </si>
-  <si>
-    <t>70001_1|70002_100|70003_30|70004_30</t>
-  </si>
-  <si>
-    <t>70001_1|70002_500|70003_200|70004_200</t>
-  </si>
-  <si>
-    <t>70001_1|70002_1000|70003_500|70004_500</t>
-  </si>
-  <si>
-    <t>70001_1|70002_2000|70003_1000|70004_1000</t>
-  </si>
-  <si>
-    <t>70001_1|70002_3000|70003_2000|70004_2000</t>
-  </si>
-  <si>
-    <t>70001_1|70002_5000|70003_3000|70004_3000</t>
-  </si>
-  <si>
-    <t>70001_1|70002_8000|70003_4000|70004_4000</t>
-  </si>
-  <si>
-    <t>70001_1|70002_10000|70003_5000|70004_5000</t>
-  </si>
-  <si>
-    <t>70001_1|70002_12000|70003_6000|70004_6000</t>
-  </si>
-  <si>
-    <t>70001_1|70002_15000|70003_7000|70004_7000</t>
-  </si>
-  <si>
-    <t>70001_1|70002_18000|70003_8000|70004_8000</t>
-  </si>
-  <si>
-    <t>70001_1|70002_20000|70003_9000|70004_9000</t>
-  </si>
-  <si>
-    <t>70001_1|70002_25000|70003_10000|70004_10000</t>
-  </si>
-  <si>
-    <t>70001_1|70002_30000|70003_11000|70004_11000</t>
-  </si>
-  <si>
-    <t>70001_1|70002_40000|70003_12000|70004_12000</t>
-  </si>
-  <si>
-    <t>70001_1|70002_50000|70003_13000|70004_13000</t>
-  </si>
-  <si>
-    <t>70001_1|70002_70000|70003_14000|70004_14000</t>
-  </si>
-  <si>
-    <t>70001_1|70002_80000|70003_15000|70004_15000</t>
-  </si>
-  <si>
-    <t>70001_1|70002_90000|70003_16000|70004_16000</t>
-  </si>
-  <si>
-    <t>70001_1|70002_100000|70003_17000|70004_17000</t>
-  </si>
-  <si>
-    <t>display_lv</t>
+    <t>70001_1</t>
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
 </sst>
@@ -879,7 +817,7 @@
   <dimension ref="A1:K2022"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -933,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>5</v>
@@ -1014,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="4">
-        <v>30001</v>
+        <v>0</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
@@ -1062,7 +1000,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="4">
-        <v>10001</v>
+        <v>0</v>
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
@@ -1158,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="4">
-        <v>20001</v>
+        <v>0</v>
       </c>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
@@ -1179,7 +1117,7 @@
         <v>3</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F13" s="4">
         <v>0</v>
@@ -1206,7 +1144,7 @@
         <v>13</v>
       </c>
       <c r="F14" s="4">
-        <v>10001</v>
+        <v>30001</v>
       </c>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
@@ -1227,7 +1165,7 @@
         <v>5</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F15" s="4">
         <v>0</v>
@@ -1251,10 +1189,10 @@
         <v>6</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F16" s="4">
-        <v>20001</v>
+        <v>0</v>
       </c>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
@@ -1275,10 +1213,10 @@
         <v>7</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F17" s="4">
-        <v>0</v>
+        <v>20001</v>
       </c>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
@@ -1299,7 +1237,7 @@
         <v>8</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F18" s="4">
         <v>0</v>
@@ -1323,10 +1261,10 @@
         <v>9</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F19" s="4">
-        <v>0</v>
+        <v>90001</v>
       </c>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
@@ -1347,7 +1285,7 @@
         <v>10</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F20" s="4">
         <v>0</v>
@@ -1371,7 +1309,7 @@
         <v>11</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F21" s="4">
         <v>10001</v>
@@ -1395,7 +1333,7 @@
         <v>12</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="F22" s="4">
         <v>0</v>
@@ -1419,7 +1357,7 @@
         <v>13</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F23" s="4">
         <v>0</v>
@@ -1443,7 +1381,7 @@
         <v>14</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="F24" s="4">
         <v>0</v>
@@ -1464,7 +1402,7 @@
         <v>15</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="F25" s="4">
         <v>0</v>
@@ -1485,10 +1423,10 @@
         <v>16</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="F26" s="4">
-        <v>20001</v>
+        <v>0</v>
       </c>
       <c r="J26" s="23"/>
     </row>
@@ -1506,7 +1444,7 @@
         <v>17</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="F27" s="4">
         <v>0</v>
@@ -1527,7 +1465,7 @@
         <v>18</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="F28" s="4">
         <v>0</v>
@@ -1548,7 +1486,7 @@
         <v>19</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="F29" s="4">
         <v>0</v>
@@ -1569,7 +1507,7 @@
         <v>20</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="F30" s="4">
         <v>0</v>
@@ -1590,7 +1528,7 @@
         <v>21</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F31" s="4">
         <v>30001</v>
@@ -1611,7 +1549,7 @@
         <v>22</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="F32" s="4">
         <v>0</v>
@@ -1632,7 +1570,7 @@
         <v>23</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="F33" s="4">
         <v>0</v>
@@ -1653,7 +1591,7 @@
         <v>24</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="F34" s="4">
         <v>0</v>
@@ -1674,7 +1612,7 @@
         <v>25</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="F35" s="4">
         <v>0</v>
@@ -1695,10 +1633,10 @@
         <v>26</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="F36" s="4">
-        <v>10001</v>
+        <v>0</v>
       </c>
       <c r="J36" s="23"/>
     </row>
@@ -1716,7 +1654,7 @@
         <v>27</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="F37" s="4">
         <v>0</v>
@@ -1737,7 +1675,7 @@
         <v>28</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="F38" s="4">
         <v>0</v>
@@ -1758,7 +1696,7 @@
         <v>29</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="F39" s="4">
         <v>0</v>
@@ -1779,7 +1717,7 @@
         <v>30</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="F40" s="4">
         <v>0</v>
@@ -1800,10 +1738,10 @@
         <v>31</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="F41" s="4">
-        <v>0</v>
+        <v>90001</v>
       </c>
       <c r="J41" s="23"/>
     </row>
@@ -1821,10 +1759,10 @@
         <v>32</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="F42" s="4">
-        <v>20001</v>
+        <v>0</v>
       </c>
       <c r="J42" s="23"/>
     </row>
@@ -1842,7 +1780,7 @@
         <v>33</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="F43" s="4">
         <v>0</v>
@@ -1863,7 +1801,7 @@
         <v>34</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="F44" s="4">
         <v>0</v>
@@ -1884,7 +1822,7 @@
         <v>35</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="F45" s="4">
         <v>0</v>
@@ -1905,7 +1843,7 @@
         <v>36</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="F46" s="4">
         <v>0</v>
@@ -1926,7 +1864,7 @@
         <v>37</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="F47" s="4">
         <v>0</v>
@@ -1947,10 +1885,10 @@
         <v>38</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="F48" s="4">
-        <v>10001</v>
+        <v>0</v>
       </c>
       <c r="J48" s="23"/>
     </row>
@@ -1968,7 +1906,7 @@
         <v>39</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="F49" s="4">
         <v>0</v>
@@ -1989,7 +1927,7 @@
         <v>40</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="F50" s="4">
         <v>0</v>
@@ -2010,10 +1948,10 @@
         <v>41</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="F51" s="4">
-        <v>0</v>
+        <v>20001</v>
       </c>
       <c r="J51" s="23"/>
     </row>
@@ -2031,10 +1969,10 @@
         <v>42</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="F52" s="4">
-        <v>20001</v>
+        <v>0</v>
       </c>
       <c r="J52" s="23"/>
     </row>
@@ -2052,7 +1990,7 @@
         <v>43</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="F53" s="4">
         <v>0</v>
@@ -2073,7 +2011,7 @@
         <v>44</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="F54" s="4">
         <v>0</v>
@@ -2094,7 +2032,7 @@
         <v>45</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="F55" s="4">
         <v>0</v>
@@ -2115,7 +2053,7 @@
         <v>46</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="F56" s="4">
         <v>0</v>
@@ -2136,7 +2074,7 @@
         <v>47</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="F57" s="4">
         <v>0</v>
@@ -2157,10 +2095,10 @@
         <v>48</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="F58" s="4">
-        <v>30001</v>
+        <v>0</v>
       </c>
       <c r="J58" s="23"/>
     </row>
@@ -2178,7 +2116,7 @@
         <v>49</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="F59" s="4">
         <v>0</v>
@@ -2199,7 +2137,7 @@
         <v>50</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="F60" s="4">
         <v>0</v>
@@ -2220,10 +2158,10 @@
         <v>51</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="F61" s="4">
-        <v>0</v>
+        <v>10001</v>
       </c>
       <c r="J61" s="23"/>
     </row>
@@ -2241,7 +2179,7 @@
         <v>52</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="F62" s="4">
         <v>0</v>
@@ -2262,7 +2200,7 @@
         <v>53</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="F63" s="4">
         <v>0</v>
@@ -2283,10 +2221,10 @@
         <v>54</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="F64" s="4">
-        <v>10001</v>
+        <v>0</v>
       </c>
       <c r="J64" s="23"/>
     </row>
@@ -2304,7 +2242,7 @@
         <v>55</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="F65" s="4">
         <v>0</v>
@@ -2325,7 +2263,7 @@
         <v>56</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="F66" s="4">
         <v>0</v>
@@ -2346,7 +2284,7 @@
         <v>57</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="F67" s="4">
         <v>0</v>
@@ -2367,7 +2305,7 @@
         <v>58</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="F68" s="4">
         <v>0</v>
@@ -2388,10 +2326,10 @@
         <v>59</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="F69" s="4">
-        <v>20001</v>
+        <v>0</v>
       </c>
       <c r="J69" s="23"/>
     </row>
@@ -2409,7 +2347,7 @@
         <v>60</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="F70" s="4">
         <v>0</v>
@@ -2430,10 +2368,10 @@
         <v>61</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="F71" s="4">
-        <v>0</v>
+        <v>30001</v>
       </c>
       <c r="J71" s="23"/>
     </row>
@@ -2451,7 +2389,7 @@
         <v>62</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="F72" s="4">
         <v>0</v>
@@ -2472,7 +2410,7 @@
         <v>63</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="F73" s="4">
         <v>0</v>
@@ -2493,7 +2431,7 @@
         <v>64</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="F74" s="4">
         <v>0</v>
@@ -2514,10 +2452,10 @@
         <v>65</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="F75" s="4">
-        <v>10001</v>
+        <v>0</v>
       </c>
       <c r="J75" s="23"/>
     </row>
@@ -2535,7 +2473,7 @@
         <v>66</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="F76" s="4">
         <v>0</v>
@@ -2556,7 +2494,7 @@
         <v>67</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="F77" s="4">
         <v>0</v>
@@ -2577,7 +2515,7 @@
         <v>68</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="F78" s="4">
         <v>0</v>
@@ -2598,7 +2536,7 @@
         <v>69</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="F79" s="4">
         <v>0</v>
@@ -2619,10 +2557,10 @@
         <v>70</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="F80" s="4">
-        <v>30001</v>
+        <v>0</v>
       </c>
       <c r="J80" s="23"/>
     </row>
@@ -2640,7 +2578,7 @@
         <v>71</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="F81" s="4">
         <v>0</v>
@@ -2661,7 +2599,7 @@
         <v>72</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="F82" s="4">
         <v>0</v>
@@ -2682,7 +2620,7 @@
         <v>73</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="F83" s="4">
         <v>0</v>
@@ -2703,7 +2641,7 @@
         <v>74</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="F84" s="4">
         <v>0</v>
@@ -2724,10 +2662,10 @@
         <v>75</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="F85" s="4">
-        <v>20001</v>
+        <v>0</v>
       </c>
       <c r="J85" s="23"/>
     </row>
@@ -2745,7 +2683,7 @@
         <v>76</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="F86" s="4">
         <v>0</v>
@@ -2766,7 +2704,7 @@
         <v>77</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="F87" s="4">
         <v>0</v>
@@ -2791,7 +2729,7 @@
         <v>78</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="F88" s="4">
         <v>0</v>
@@ -2816,7 +2754,7 @@
         <v>79</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="F89" s="4">
         <v>0</v>
@@ -2841,7 +2779,7 @@
         <v>80</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="F90" s="4">
         <v>0</v>
@@ -2866,10 +2804,10 @@
         <v>81</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="F91" s="4">
-        <v>10001</v>
+        <v>0</v>
       </c>
       <c r="G91" s="4"/>
       <c r="H91" s="4"/>
@@ -2891,7 +2829,7 @@
         <v>82</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="F92" s="4">
         <v>0</v>
@@ -2916,7 +2854,7 @@
         <v>83</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="F93" s="4">
         <v>0</v>
@@ -2941,7 +2879,7 @@
         <v>84</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="F94" s="4">
         <v>0</v>
@@ -2966,7 +2904,7 @@
         <v>85</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="F95" s="4">
         <v>0</v>
@@ -2987,10 +2925,10 @@
         <v>86</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="F96" s="4">
-        <v>20001</v>
+        <v>0</v>
       </c>
       <c r="G96" s="5"/>
       <c r="H96" s="5"/>
@@ -3011,7 +2949,7 @@
         <v>87</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="F97" s="4">
         <v>0</v>
@@ -3034,7 +2972,7 @@
         <v>88</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="F98" s="4">
         <v>0</v>
@@ -3057,7 +2995,7 @@
         <v>89</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="F99" s="4">
         <v>0</v>
@@ -3080,7 +3018,7 @@
         <v>90</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="F100" s="4">
         <v>0</v>
@@ -3103,7 +3041,7 @@
         <v>91</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="F101" s="4">
         <v>0</v>
@@ -3126,7 +3064,7 @@
         <v>92</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="F102" s="4">
         <v>0</v>
@@ -3149,10 +3087,10 @@
         <v>93</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="F103" s="4">
-        <v>30001</v>
+        <v>0</v>
       </c>
       <c r="G103" s="5"/>
       <c r="H103" s="5"/>
